--- a/Progressive-Tax-Methods.xlsx
+++ b/Progressive-Tax-Methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E997FF2E-5931-432F-BEBF-BC11E5045FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC45F52-D3DE-4696-ACE0-480BE1F41A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FAAE22D-89D5-4DB1-84B6-A892D82A13B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5FAAE22D-89D5-4DB1-84B6-A892D82A13B4}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="4" r:id="rId1"/>
@@ -367,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -513,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,18 +685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9337076D-938B-4674-A188-4CFD2B3DF619}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1171875" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" customWidth="1"/>
+    <col min="3" max="4" width="8.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -704,7 +704,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="61.5" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" ht="88.2" x14ac:dyDescent="0.8">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -742,7 +742,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>20550</v>
       </c>
@@ -758,7 +758,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>83550</v>
       </c>
@@ -774,7 +774,7 @@
         <v>12419</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>178150</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>340100</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>431900</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>647850</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C11" s="9">
         <f>SUM(C4:C10)</f>
         <v>140000</v>
@@ -864,16 +864,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3210B372-8B2F-46D0-84ED-06035F3186D5}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1171875" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" customWidth="1"/>
+    <col min="3" max="4" width="8.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -888,12 +890,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="61.5" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" ht="58.8" x14ac:dyDescent="0.8">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -905,7 +907,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -917,7 +919,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>20550</v>
       </c>
@@ -930,7 +932,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>83550</v>
       </c>
@@ -943,7 +945,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>178150</v>
       </c>
@@ -956,7 +958,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>340100</v>
       </c>
@@ -969,7 +971,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>431900</v>
       </c>
@@ -982,7 +984,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>647850</v>
       </c>
@@ -995,11 +997,11 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="str" cm="1">
         <f t="array" ref="A12:C12">A3:C3</f>
         <v>Lower bound</v>
@@ -1014,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="3" cm="1">
         <f t="array" ref="A13:C13">INDEX($A$4:$C$10,C1,0)</f>
         <v>83550</v>
@@ -1044,25 +1046,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A13 D13" evalError="1"/>
+    <ignoredError sqref="A13" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4186CDA9-3FA2-409A-86AE-D285E5A2390C}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1171875" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" customWidth="1"/>
+    <col min="3" max="4" width="8.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="61.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="58.8" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1078,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1090,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>20550</v>
       </c>
@@ -1099,7 +1103,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>83550</v>
       </c>
@@ -1111,8 +1115,12 @@
         <v>9615</v>
       </c>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <f>(140000-A4)*B4+C4</f>
+        <v>22034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>178150</v>
       </c>
@@ -1124,8 +1132,9 @@
         <v>30427</v>
       </c>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>340100</v>
       </c>
@@ -1137,8 +1146,13 @@
         <v>69295</v>
       </c>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <f>(240000-A5)*B5+C5</f>
+        <v>45271</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>431900</v>
       </c>
@@ -1151,7 +1165,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>647850</v>
       </c>
@@ -1164,11 +1178,11 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>140000</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>22034</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <f>A$11+10000</f>
         <v>150000</v>
@@ -1205,7 +1219,7 @@
         <v>24234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <f>A$11+50000</f>
         <v>190000</v>
@@ -1215,7 +1229,7 @@
         <v>33271</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <f>A$11+100000</f>
         <v>240000</v>
@@ -1225,7 +1239,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>1000000</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>304549</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>7</v>
       </c>
